--- a/NetTrader.Indicator/MacdHDataTemplate.xlsx
+++ b/NetTrader.Indicator/MacdHDataTemplate.xlsx
@@ -5,18 +5,20 @@
   <sheets>
     <sheet state="visible" name="template" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="DataRange">template!$C$2:$C$51</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjg/pFFfzfyCHPH7r8t6pQEvEC1UQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhLTiqc5pVW85FQnVt6zF1Sx4TrlQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -104,15 +106,15 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>template!$C$2:$C$51</c:f>
+              <c:f>template!$C$2:$C$31</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1429680325"/>
-        <c:axId val="1622258413"/>
+        <c:axId val="74017173"/>
+        <c:axId val="1302492294"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1429680325"/>
+        <c:axId val="74017173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -154,10 +156,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1622258413"/>
+        <c:crossAx val="1302492294"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1622258413"/>
+        <c:axId val="1302492294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -224,7 +226,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1429680325"/>
+        <c:crossAx val="74017173"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -497,8 +499,8 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A51" si="1">TODAY()</f>
-        <v>43766</v>
+        <f t="shared" ref="A2:A31" si="1">TODAY()</f>
+        <v>43767</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -510,7 +512,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -522,7 +524,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -534,7 +536,7 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -546,7 +548,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -558,7 +560,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -570,7 +572,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -582,7 +584,7 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -594,7 +596,7 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -606,7 +608,7 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -618,7 +620,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -630,7 +632,7 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -642,7 +644,7 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -654,7 +656,7 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -666,7 +668,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -678,7 +680,7 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -690,7 +692,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -702,7 +704,7 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -714,7 +716,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -726,7 +728,7 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
@@ -738,7 +740,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -750,7 +752,7 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -762,7 +764,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
@@ -774,7 +776,7 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
@@ -786,7 +788,7 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -798,7 +800,7 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
@@ -810,7 +812,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -822,7 +824,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -834,7 +836,7 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -846,7 +848,7 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
@@ -856,244 +858,64 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31.0</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2">
-        <v>32.0</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>33.0</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34.0</v>
-      </c>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>35.0</v>
-      </c>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2">
-        <v>36.0</v>
-      </c>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>37.0</v>
-      </c>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>38.0</v>
-      </c>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2">
-        <v>39.0</v>
-      </c>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2">
-        <v>40.0</v>
-      </c>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2">
-        <v>41.0</v>
-      </c>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2">
-        <v>42.0</v>
-      </c>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2">
-        <v>43.0</v>
-      </c>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2">
-        <v>44.0</v>
-      </c>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2">
-        <v>45.0</v>
-      </c>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="2">
-        <v>46.0</v>
-      </c>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="2">
-        <v>47.0</v>
-      </c>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="2">
-        <v>48.0</v>
-      </c>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2">
-        <v>49.0</v>
-      </c>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <f t="shared" si="1"/>
-        <v>43766</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="2">
-        <v>50.0</v>
-      </c>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>

--- a/NetTrader.Indicator/MacdHDataTemplate.xlsx
+++ b/NetTrader.Indicator/MacdHDataTemplate.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -95,6 +95,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -124,11 +125,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1305416859"/>
-        <c:axId val="1412018758"/>
+        <c:axId val="273261813"/>
+        <c:axId val="544953582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1305416859"/>
+        <c:axId val="273261813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -170,10 +171,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412018758"/>
+        <c:crossAx val="544953582"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1412018758"/>
+        <c:axId val="544953582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +241,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1305416859"/>
+        <c:crossAx val="273261813"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -270,8 +271,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -496,7 +497,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
@@ -526,7 +530,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A61" si="1">TODAY()</f>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -534,23 +538,29 @@
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
+      <c r="G2" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -558,11 +568,14 @@
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
+      <c r="G4" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -570,11 +583,14 @@
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
+      <c r="G5" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -582,11 +598,14 @@
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
+      <c r="G6" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -594,11 +613,14 @@
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
+      <c r="G7" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -606,11 +628,14 @@
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
+      <c r="G8" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -618,11 +643,14 @@
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
+      <c r="G9" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -630,11 +658,14 @@
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
+      <c r="G10" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -642,11 +673,14 @@
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
+      <c r="G11" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -654,11 +688,14 @@
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
+      <c r="G12" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -666,11 +703,14 @@
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
+      <c r="G13" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -678,11 +718,14 @@
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
+      <c r="G14" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -690,11 +733,14 @@
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
+      <c r="G15" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -702,11 +748,14 @@
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
+      <c r="G16" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -714,11 +763,14 @@
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
+      <c r="G17" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -726,11 +778,14 @@
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
+      <c r="G18" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -738,11 +793,14 @@
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
+      <c r="G19" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -750,11 +808,14 @@
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
+      <c r="G20" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -762,11 +823,14 @@
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
+      <c r="G21" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -774,11 +838,14 @@
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
+      <c r="G22" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -786,11 +853,14 @@
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
+      <c r="G23" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -798,11 +868,14 @@
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
+      <c r="G24" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -810,11 +883,14 @@
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
+      <c r="G25" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -822,11 +898,14 @@
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
+      <c r="G26" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -834,11 +913,14 @@
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
+      <c r="G27" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -846,11 +928,14 @@
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
+      <c r="G28" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -858,11 +943,14 @@
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
+      <c r="G29" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -870,11 +958,14 @@
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
+      <c r="G30" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
@@ -882,11 +973,14 @@
       <c r="C31" s="3">
         <v>30.0</v>
       </c>
+      <c r="G31" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -894,11 +988,14 @@
       <c r="C32" s="2">
         <v>30.0</v>
       </c>
+      <c r="G32" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -906,11 +1003,14 @@
       <c r="C33" s="2">
         <v>30.0</v>
       </c>
+      <c r="G33" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -918,11 +1018,14 @@
       <c r="C34" s="2">
         <v>30.0</v>
       </c>
+      <c r="G34" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -930,11 +1033,14 @@
       <c r="C35" s="2">
         <v>30.0</v>
       </c>
+      <c r="G35" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -942,11 +1048,14 @@
       <c r="C36" s="2">
         <v>30.0</v>
       </c>
+      <c r="G36" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -954,11 +1063,14 @@
       <c r="C37" s="2">
         <v>30.0</v>
       </c>
+      <c r="G37" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -966,11 +1078,14 @@
       <c r="C38" s="2">
         <v>30.0</v>
       </c>
+      <c r="G38" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -978,11 +1093,14 @@
       <c r="C39" s="2">
         <v>30.0</v>
       </c>
+      <c r="G39" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -990,11 +1108,14 @@
       <c r="C40" s="2">
         <v>30.0</v>
       </c>
+      <c r="G40" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -1002,11 +1123,14 @@
       <c r="C41" s="2">
         <v>30.0</v>
       </c>
+      <c r="G41" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -1014,11 +1138,14 @@
       <c r="C42" s="2">
         <v>30.0</v>
       </c>
+      <c r="G42" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -1026,11 +1153,14 @@
       <c r="C43" s="2">
         <v>30.0</v>
       </c>
+      <c r="G43" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -1038,11 +1168,14 @@
       <c r="C44" s="2">
         <v>30.0</v>
       </c>
+      <c r="G44" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -1050,11 +1183,14 @@
       <c r="C45" s="2">
         <v>30.0</v>
       </c>
+      <c r="G45" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -1062,11 +1198,14 @@
       <c r="C46" s="2">
         <v>30.0</v>
       </c>
+      <c r="G46" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -1074,11 +1213,14 @@
       <c r="C47" s="2">
         <v>30.0</v>
       </c>
+      <c r="G47" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -1086,11 +1228,14 @@
       <c r="C48" s="2">
         <v>30.0</v>
       </c>
+      <c r="G48" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -1098,11 +1243,14 @@
       <c r="C49" s="2">
         <v>30.0</v>
       </c>
+      <c r="G49" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -1110,11 +1258,14 @@
       <c r="C50" s="2">
         <v>30.0</v>
       </c>
+      <c r="G50" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
@@ -1122,11 +1273,14 @@
       <c r="C51" s="2">
         <v>30.0</v>
       </c>
+      <c r="G51" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -1134,11 +1288,14 @@
       <c r="C52" s="2">
         <v>30.0</v>
       </c>
+      <c r="G52" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -1146,11 +1303,14 @@
       <c r="C53" s="2">
         <v>30.0</v>
       </c>
+      <c r="G53" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -1158,11 +1318,14 @@
       <c r="C54" s="2">
         <v>30.0</v>
       </c>
+      <c r="G54" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -1170,11 +1333,14 @@
       <c r="C55" s="2">
         <v>30.0</v>
       </c>
+      <c r="G55" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -1182,11 +1348,14 @@
       <c r="C56" s="2">
         <v>30.0</v>
       </c>
+      <c r="G56" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -1194,11 +1363,14 @@
       <c r="C57" s="2">
         <v>30.0</v>
       </c>
+      <c r="G57" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
@@ -1206,11 +1378,14 @@
       <c r="C58" s="2">
         <v>30.0</v>
       </c>
+      <c r="G58" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
@@ -1218,11 +1393,14 @@
       <c r="C59" s="2">
         <v>30.0</v>
       </c>
+      <c r="G59" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
@@ -1230,11 +1408,14 @@
       <c r="C60" s="2">
         <v>30.0</v>
       </c>
+      <c r="G60" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
@@ -1242,9 +1423,16 @@
       <c r="C61" s="2">
         <v>30.0</v>
       </c>
+      <c r="G61" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
+      <c r="G62" s="5">
+        <f>AVERAGE(G2:G61)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>

--- a/NetTrader.Indicator/MacdHDataTemplate.xlsx
+++ b/NetTrader.Indicator/MacdHDataTemplate.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Is momentum decreasing</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
   <si>
     <t>RSI</t>
@@ -125,11 +128,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="273261813"/>
-        <c:axId val="544953582"/>
+        <c:axId val="746131791"/>
+        <c:axId val="767385669"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="273261813"/>
+        <c:axId val="746131791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -171,10 +174,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544953582"/>
+        <c:crossAx val="767385669"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544953582"/>
+        <c:axId val="767385669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,7 +244,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273261813"/>
+        <c:crossAx val="746131791"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -523,47 +526,50 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A61" si="1">TODAY()</f>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
@@ -575,10 +581,10 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
@@ -590,10 +596,10 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
@@ -605,10 +611,10 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
@@ -620,10 +626,10 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
@@ -635,10 +641,10 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
@@ -650,10 +656,10 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
@@ -665,10 +671,10 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
@@ -680,10 +686,10 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
@@ -695,10 +701,10 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
@@ -710,10 +716,10 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
@@ -725,10 +731,10 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
@@ -740,10 +746,10 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
@@ -755,10 +761,10 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
@@ -770,10 +776,10 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
@@ -785,10 +791,10 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
@@ -800,10 +806,10 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
@@ -815,10 +821,10 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
@@ -830,10 +836,10 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
@@ -845,10 +851,10 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
@@ -860,10 +866,10 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
@@ -875,10 +881,10 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
@@ -890,10 +896,10 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
@@ -905,10 +911,10 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
@@ -920,10 +926,10 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
@@ -935,10 +941,10 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
@@ -950,10 +956,10 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
@@ -965,12 +971,12 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3">
+        <v>43778</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="G31" s="2">
@@ -980,10 +986,10 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2">
         <v>30.0</v>
@@ -995,10 +1001,10 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2">
         <v>30.0</v>
@@ -1010,10 +1016,10 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
         <v>30.0</v>
@@ -1025,10 +1031,10 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2">
         <v>30.0</v>
@@ -1040,10 +1046,10 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
         <v>30.0</v>
@@ -1055,10 +1061,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
         <v>30.0</v>
@@ -1070,10 +1076,10 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2">
         <v>30.0</v>
@@ -1085,10 +1091,10 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2">
         <v>30.0</v>
@@ -1100,10 +1106,10 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2">
         <v>30.0</v>
@@ -1115,10 +1121,10 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2">
         <v>30.0</v>
@@ -1130,10 +1136,10 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
         <v>30.0</v>
@@ -1145,10 +1151,10 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
         <v>30.0</v>
@@ -1160,10 +1166,10 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
         <v>30.0</v>
@@ -1175,10 +1181,10 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="2">
         <v>30.0</v>
@@ -1190,10 +1196,10 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2">
         <v>30.0</v>
@@ -1205,10 +1211,10 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2">
         <v>30.0</v>
@@ -1220,10 +1226,10 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
         <v>30.0</v>
@@ -1235,10 +1241,10 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
         <v>30.0</v>
@@ -1250,10 +1256,10 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
         <v>30.0</v>
@@ -1265,10 +1271,10 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2">
         <v>30.0</v>
@@ -1280,10 +1286,10 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2">
         <v>30.0</v>
@@ -1295,10 +1301,10 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2">
         <v>30.0</v>
@@ -1310,10 +1316,10 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2">
         <v>30.0</v>
@@ -1325,10 +1331,10 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2">
         <v>30.0</v>
@@ -1340,10 +1346,10 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2">
         <v>30.0</v>
@@ -1355,10 +1361,10 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2">
         <v>30.0</v>
@@ -1370,10 +1376,10 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2">
         <v>30.0</v>
@@ -1385,10 +1391,10 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2">
         <v>30.0</v>
@@ -1400,10 +1406,10 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2">
         <v>30.0</v>
@@ -1415,10 +1421,10 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2">
         <v>30.0</v>

--- a/NetTrader.Indicator/MacdHDataTemplate.xlsx
+++ b/NetTrader.Indicator/MacdHDataTemplate.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -41,7 +41,19 @@
     <t>RSI</t>
   </si>
   <si>
-    <t xml:space="preserve">Closing Value </t>
+    <t>smaShort</t>
+  </si>
+  <si>
+    <t>SmaLong</t>
+  </si>
+  <si>
+    <t>smaBuyTrend</t>
+  </si>
+  <si>
+    <t>Closing Value</t>
+  </si>
+  <si>
+    <t>Action Signal</t>
   </si>
   <si>
     <t xml:space="preserve">Increasing </t>
@@ -128,11 +140,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="746131791"/>
-        <c:axId val="767385669"/>
+        <c:axId val="1524214106"/>
+        <c:axId val="757115547"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="746131791"/>
+        <c:axId val="1524214106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,10 +186,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767385669"/>
+        <c:crossAx val="757115547"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767385669"/>
+        <c:axId val="757115547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -187,7 +199,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:srgbClr val="B7B7B7">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -196,7 +210,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="CCCCCC"/>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -244,7 +260,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="746131791"/>
+        <c:crossAx val="1524214106"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -274,8 +290,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -526,20 +542,32 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A61" si="1">TODAY()</f>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -551,10 +579,10 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
@@ -566,10 +594,10 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
@@ -581,10 +609,10 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
@@ -596,10 +624,10 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
@@ -611,10 +639,10 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
@@ -626,10 +654,10 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
@@ -641,10 +669,10 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
@@ -656,10 +684,10 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
@@ -671,10 +699,10 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
@@ -686,10 +714,10 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
@@ -701,10 +729,10 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
@@ -716,10 +744,10 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
@@ -731,10 +759,10 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
@@ -746,10 +774,10 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
@@ -761,10 +789,10 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
@@ -776,10 +804,10 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
@@ -791,10 +819,10 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
@@ -806,10 +834,10 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
@@ -821,10 +849,10 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
@@ -836,10 +864,10 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
@@ -851,10 +879,10 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
@@ -866,10 +894,10 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
@@ -881,10 +909,10 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
@@ -896,10 +924,10 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
@@ -911,10 +939,10 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
@@ -926,10 +954,10 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
@@ -941,10 +969,10 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
@@ -956,10 +984,10 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
@@ -971,10 +999,10 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
@@ -986,10 +1014,10 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
         <v>30.0</v>
@@ -1001,10 +1029,10 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
         <v>30.0</v>
@@ -1016,10 +1044,10 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2">
         <v>30.0</v>
@@ -1031,10 +1059,10 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
         <v>30.0</v>
@@ -1046,10 +1074,10 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2">
         <v>30.0</v>
@@ -1061,10 +1089,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2">
         <v>30.0</v>
@@ -1076,10 +1104,10 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
         <v>30.0</v>
@@ -1091,10 +1119,10 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2">
         <v>30.0</v>
@@ -1106,10 +1134,10 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2">
         <v>30.0</v>
@@ -1121,10 +1149,10 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2">
         <v>30.0</v>
@@ -1136,10 +1164,10 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
         <v>30.0</v>
@@ -1151,10 +1179,10 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
         <v>30.0</v>
@@ -1166,10 +1194,10 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
         <v>30.0</v>
@@ -1181,10 +1209,10 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2">
         <v>30.0</v>
@@ -1196,10 +1224,10 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
         <v>30.0</v>
@@ -1211,10 +1239,10 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2">
         <v>30.0</v>
@@ -1226,10 +1254,10 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2">
         <v>30.0</v>
@@ -1241,10 +1269,10 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2">
         <v>30.0</v>
@@ -1256,10 +1284,10 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2">
         <v>30.0</v>
@@ -1271,10 +1299,10 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2">
         <v>30.0</v>
@@ -1286,10 +1314,10 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
         <v>30.0</v>
@@ -1301,10 +1329,10 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2">
         <v>30.0</v>
@@ -1316,10 +1344,10 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2">
         <v>30.0</v>
@@ -1331,10 +1359,10 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
         <v>30.0</v>
@@ -1346,10 +1374,10 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2">
         <v>30.0</v>
@@ -1361,10 +1389,10 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C57" s="2">
         <v>30.0</v>
@@ -1376,10 +1404,10 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2">
         <v>30.0</v>
@@ -1391,10 +1419,10 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2">
         <v>30.0</v>
@@ -1406,10 +1434,10 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2">
         <v>30.0</v>
@@ -1421,10 +1449,10 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
         <v>30.0</v>
@@ -1435,9 +1463,9 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="G62" s="5">
-        <f>AVERAGE(G2:G61)</f>
-        <v>2</v>
+      <c r="K62" s="5" t="str">
+        <f>AVERAGE(K2:K61)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">

--- a/NetTrader.Indicator/MacdHDataTemplate.xlsx
+++ b/NetTrader.Indicator/MacdHDataTemplate.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhLTiqc5pVW85FQnVt6zF1Sx4TrlQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhQ4US60hXcJUv5jK3Z1bksst2j6g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Difference in momentum </t>
   </si>
   <si>
-    <t>Is momentum decreasing</t>
+    <t>trendReversallHappening</t>
   </si>
   <si>
     <t>RS</t>
@@ -41,10 +41,10 @@
     <t>RSI</t>
   </si>
   <si>
-    <t>smaShort</t>
+    <t>ShortMa</t>
   </si>
   <si>
-    <t>SmaLong</t>
+    <t>LongMa</t>
   </si>
   <si>
     <t>smaBuyTrend</t>
@@ -53,7 +53,7 @@
     <t>Closing Value</t>
   </si>
   <si>
-    <t>Action Signal</t>
+    <t>Action Signals</t>
   </si>
   <si>
     <t xml:space="preserve">Increasing </t>
@@ -119,201 +119,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>template!$C$2:$C$61</c:f>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1524214106"/>
-        <c:axId val="757115547"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1524214106"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="757115547"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="757115547"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1524214106"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2031617822" name="Chart 1" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,6 +329,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="21.14"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -536,7 +346,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -551,20 +361,20 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A61" si="1">TODAY()</f>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -579,7 +389,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -594,7 +404,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -609,7 +419,7 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -624,7 +434,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -639,7 +449,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -654,7 +464,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -669,7 +479,7 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -684,7 +494,7 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -699,7 +509,7 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -714,7 +524,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -729,7 +539,7 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -744,7 +554,7 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -759,7 +569,7 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -774,7 +584,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -789,7 +599,7 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -804,7 +614,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -819,7 +629,7 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -834,7 +644,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -849,7 +659,7 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -864,7 +674,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -879,7 +689,7 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -894,7 +704,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -909,7 +719,7 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -924,7 +734,7 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -939,7 +749,7 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -954,7 +764,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -969,7 +779,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
@@ -984,7 +794,7 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -999,7 +809,7 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -1014,7 +824,7 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
@@ -1029,7 +839,7 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
@@ -1044,7 +854,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -1059,7 +869,7 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -1074,7 +884,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
@@ -1089,7 +899,7 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1104,7 +914,7 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -1119,7 +929,7 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -1134,7 +944,7 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -1149,7 +959,7 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -1164,7 +974,7 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
@@ -1179,7 +989,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
@@ -1194,7 +1004,7 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -1209,7 +1019,7 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
@@ -1224,7 +1034,7 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
@@ -1239,7 +1049,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
@@ -1254,7 +1064,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
@@ -1269,7 +1079,7 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
@@ -1284,7 +1094,7 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
@@ -1299,7 +1109,7 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
@@ -1314,7 +1124,7 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>12</v>
@@ -1329,7 +1139,7 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>12</v>
@@ -1344,7 +1154,7 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
@@ -1359,7 +1169,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
@@ -1374,7 +1184,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>12</v>
@@ -1389,7 +1199,7 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
@@ -1404,7 +1214,7 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>12</v>
@@ -1419,7 +1229,7 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>12</v>
@@ -1434,7 +1244,7 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>12</v>
@@ -1449,7 +1259,7 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43789</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>12</v>
